--- a/DÍA 4/Redondeo.xlsx
+++ b/DÍA 4/Redondeo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUSTAVO\Documents\Cursos Udemy\ExcelTotal\DÍA 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F2B3C8-791C-40A7-A1CF-97CED08A7577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC95229-D9E8-4D81-B057-3CDB317DD167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AB698C9C-3990-4F18-AD25-DD962E841999}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Artículos Lavados</t>
   </si>
@@ -154,6 +154,9 @@
       </rPr>
       <t>para reemplzar un valor de decimal por otro</t>
     </r>
+  </si>
+  <si>
+    <t>ANIDAR REDONDEO Y PROMEDIO</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -627,6 +630,10 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14568208-76FE-43F8-B018-87EFB901F035}">
-  <dimension ref="B2:M20"/>
+  <dimension ref="B2:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -954,14 +961,15 @@
     <col min="11" max="11" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="14" max="14" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="2:13" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:14" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
@@ -970,10 +978,10 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:13" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:14" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1010,8 +1018,11 @@
       <c r="M6" s="31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N6" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
@@ -1042,19 +1053,23 @@
         <v>11.5</v>
       </c>
       <c r="K7" s="34">
-        <f>ROUND(J7,2)</f>
+        <f t="shared" ref="K7:K14" si="0">ROUND(J7,2)</f>
         <v>11.5</v>
       </c>
       <c r="L7" s="34">
-        <f>ROUNDUP(J7,2)</f>
+        <f t="shared" ref="L7:L14" si="1">ROUNDUP(J7,2)</f>
         <v>11.5</v>
       </c>
       <c r="M7" s="34">
-        <f>ROUNDDOWN(J7,2)</f>
+        <f t="shared" ref="M7:M14" si="2">ROUNDDOWN(J7,2)</f>
         <v>11.5</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N7" s="36">
+        <f>ROUND(AVERAGE(C7:H7),2)</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
@@ -1077,27 +1092,31 @@
         <v>56</v>
       </c>
       <c r="I8" s="20">
-        <f t="shared" ref="I8:I14" si="0">SUM(C8:H8)</f>
+        <f t="shared" ref="I8:I14" si="3">SUM(C8:H8)</f>
         <v>153</v>
       </c>
       <c r="J8" s="29">
-        <f t="shared" ref="J8:J14" si="1">AVERAGE(C8:H8)</f>
+        <f t="shared" ref="J8:J14" si="4">AVERAGE(C8:H8)</f>
         <v>25.5</v>
       </c>
       <c r="K8" s="34">
-        <f>ROUND(J8,2)</f>
+        <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
       <c r="L8" s="34">
-        <f>ROUNDUP(J8,2)</f>
+        <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
       <c r="M8" s="34">
-        <f>ROUNDDOWN(J8,2)</f>
+        <f t="shared" si="2"/>
         <v>25.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="36">
+        <f t="shared" ref="N8:N14" si="5">ROUND(AVERAGE(C8:H8),2)</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
@@ -1120,27 +1139,31 @@
         <v>6</v>
       </c>
       <c r="I9" s="20">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="J9" s="29">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="K9" s="34">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="J9" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="L9" s="34">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="K9" s="34">
-        <f>ROUND(J9,2)</f>
+      <c r="M9" s="34">
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="L9" s="34">
-        <f>ROUNDUP(J9,2)</f>
+      <c r="N9" s="36">
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="M9" s="34">
-        <f>ROUNDDOWN(J9,2)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
@@ -1163,27 +1186,31 @@
         <v>9</v>
       </c>
       <c r="I10" s="20">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="J10" s="29">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K10" s="34">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="J10" s="29">
+        <v>8</v>
+      </c>
+      <c r="L10" s="34">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K10" s="34">
-        <f>ROUND(J10,2)</f>
+      <c r="M10" s="34">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L10" s="34">
-        <f>ROUNDUP(J10,2)</f>
+      <c r="N10" s="36">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="M10" s="34">
-        <f>ROUNDDOWN(J10,2)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
         <v>9</v>
       </c>
@@ -1206,27 +1233,31 @@
         <v>4</v>
       </c>
       <c r="I11" s="20">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="J11" s="29">
+        <f t="shared" si="4"/>
+        <v>20.5</v>
+      </c>
+      <c r="K11" s="34">
         <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="J11" s="29">
+        <v>20.5</v>
+      </c>
+      <c r="L11" s="34">
         <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
-      <c r="K11" s="34">
-        <f>ROUND(J11,2)</f>
+      <c r="M11" s="34">
+        <f t="shared" si="2"/>
         <v>20.5</v>
       </c>
-      <c r="L11" s="34">
-        <f>ROUNDUP(J11,2)</f>
+      <c r="N11" s="36">
+        <f t="shared" si="5"/>
         <v>20.5</v>
       </c>
-      <c r="M11" s="34">
-        <f>ROUNDDOWN(J11,2)</f>
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
@@ -1249,27 +1280,31 @@
         <v>12</v>
       </c>
       <c r="I12" s="20">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="J12" s="29">
+        <f t="shared" si="4"/>
+        <v>17.166666666666668</v>
+      </c>
+      <c r="K12" s="34">
         <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="J12" s="29">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="L12" s="34">
         <f t="shared" si="1"/>
-        <v>17.166666666666668</v>
-      </c>
-      <c r="K12" s="34">
-        <f>ROUND(J12,2)</f>
         <v>17.170000000000002</v>
       </c>
-      <c r="L12" s="34">
-        <f>ROUNDUP(J12,2)</f>
+      <c r="M12" s="34">
+        <f t="shared" si="2"/>
+        <v>17.16</v>
+      </c>
+      <c r="N12" s="36">
+        <f t="shared" si="5"/>
         <v>17.170000000000002</v>
       </c>
-      <c r="M12" s="34">
-        <f>ROUNDDOWN(J12,2)</f>
-        <v>17.16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>11</v>
       </c>
@@ -1292,27 +1327,31 @@
         <v>67</v>
       </c>
       <c r="I13" s="20">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="J13" s="29">
+        <f t="shared" si="4"/>
+        <v>17.5</v>
+      </c>
+      <c r="K13" s="34">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="J13" s="29">
+        <v>17.5</v>
+      </c>
+      <c r="L13" s="34">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="K13" s="34">
-        <f>ROUND(J13,2)</f>
+      <c r="M13" s="34">
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
-      <c r="L13" s="34">
-        <f>ROUNDUP(J13,2)</f>
+      <c r="N13" s="36">
+        <f t="shared" si="5"/>
         <v>17.5</v>
       </c>
-      <c r="M13" s="34">
-        <f>ROUNDDOWN(J13,2)</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="21" t="s">
         <v>12</v>
       </c>
@@ -1335,46 +1374,50 @@
         <v>89</v>
       </c>
       <c r="I14" s="25">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="J14" s="30">
+        <f t="shared" si="4"/>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="K14" s="34">
         <f t="shared" si="0"/>
-        <v>154</v>
-      </c>
-      <c r="J14" s="30">
+        <v>25.67</v>
+      </c>
+      <c r="L14" s="34">
         <f t="shared" si="1"/>
-        <v>25.666666666666668</v>
-      </c>
-      <c r="K14" s="34">
-        <f>ROUND(J14,2)</f>
         <v>25.67</v>
       </c>
-      <c r="L14" s="34">
-        <f>ROUNDUP(J14,2)</f>
+      <c r="M14" s="34">
+        <f t="shared" si="2"/>
+        <v>25.66</v>
+      </c>
+      <c r="N14" s="36">
+        <f t="shared" si="5"/>
         <v>25.67</v>
       </c>
-      <c r="M14" s="34">
-        <f>ROUNDDOWN(J14,2)</f>
-        <v>25.66</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="26"/>
       <c r="C15" s="27">
         <f>SUM(C7:C14)</f>
         <v>114</v>
       </c>
       <c r="D15" s="27">
-        <f t="shared" ref="D15:G15" si="2">SUM(D7:D14)</f>
+        <f t="shared" ref="D15:G15" si="6">SUM(D7:D14)</f>
         <v>115</v>
       </c>
       <c r="E15" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="F15" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="G15" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="H15" s="27">
